--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Fall.111920.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Fall.111920.xlsx_with_dialog_acts.xlsx
@@ -623,12 +623,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1348,12 +1348,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1810,12 +1810,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2538,12 +2538,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2786,12 +2786,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3099,12 +3099,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3813,12 +3813,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3939,12 +3939,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4233,12 +4233,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4989,12 +4989,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5241,12 +5241,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6006,12 +6006,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6082,12 +6082,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6673,12 +6673,12 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7010,12 +7010,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7052,12 +7052,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7094,12 +7094,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7136,12 +7136,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7427,12 +7427,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8344,12 +8344,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9351,12 +9351,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10403,12 +10403,12 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10886,12 +10886,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11257,12 +11257,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11467,12 +11467,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13080,12 +13080,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14297,12 +14297,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14339,12 +14339,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15259,12 +15259,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15343,12 +15343,12 @@
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15465,12 +15465,12 @@
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15794,12 +15794,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16241,12 +16241,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16364,12 +16364,12 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16680,12 +16680,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17199,12 +17199,12 @@
       <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17351,12 +17351,12 @@
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17590,12 +17590,12 @@
       <c r="H421" t="inlineStr"/>
       <c r="I421" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18499,12 +18499,12 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18542,12 +18542,12 @@
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18752,12 +18752,12 @@
       <c r="H449" t="inlineStr"/>
       <c r="I449" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -18836,12 +18836,12 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19140,12 +19140,12 @@
       <c r="H459" t="inlineStr"/>
       <c r="I459" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19178,12 +19178,12 @@
       <c r="H460" t="inlineStr"/>
       <c r="I460" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19221,12 +19221,12 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19259,12 +19259,12 @@
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19297,12 +19297,12 @@
       <c r="H463" t="inlineStr"/>
       <c r="I463" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19639,12 +19639,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19948,12 +19948,12 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20873,12 +20873,12 @@
       <c r="H503" t="inlineStr"/>
       <c r="I503" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20987,12 +20987,12 @@
       <c r="H506" t="inlineStr"/>
       <c r="I506" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21063,12 +21063,12 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21105,12 +21105,12 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21143,12 +21143,12 @@
       <c r="H510" t="inlineStr"/>
       <c r="I510" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21375,12 +21375,12 @@
       <c r="H516" t="inlineStr"/>
       <c r="I516" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22168,12 +22168,12 @@
       <c r="H536" t="inlineStr"/>
       <c r="I536" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22206,12 +22206,12 @@
       <c r="H537" t="inlineStr"/>
       <c r="I537" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22443,12 +22443,12 @@
       <c r="H543" t="inlineStr"/>
       <c r="I543" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22973,12 +22973,12 @@
       <c r="H556" t="inlineStr"/>
       <c r="I556" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23091,12 +23091,12 @@
       <c r="H559" t="inlineStr"/>
       <c r="I559" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23371,12 +23371,12 @@
       <c r="H566" t="inlineStr"/>
       <c r="I566" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23455,12 +23455,12 @@
       <c r="H568" t="inlineStr"/>
       <c r="I568" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23623,12 +23623,12 @@
       <c r="H572" t="inlineStr"/>
       <c r="I572" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23707,12 +23707,12 @@
       <c r="H574" t="inlineStr"/>
       <c r="I574" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23791,12 +23791,12 @@
       <c r="H576" t="inlineStr"/>
       <c r="I576" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23875,12 +23875,12 @@
       <c r="H578" t="inlineStr"/>
       <c r="I578" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23917,12 +23917,12 @@
       <c r="H579" t="inlineStr"/>
       <c r="I579" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24001,12 +24001,12 @@
       <c r="H581" t="inlineStr"/>
       <c r="I581" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24623,12 +24623,12 @@
       <c r="H596" t="inlineStr"/>
       <c r="I596" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24952,12 +24952,12 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24990,12 +24990,12 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25356,12 +25356,12 @@
       <c r="H614" t="inlineStr"/>
       <c r="I614" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25524,12 +25524,12 @@
       <c r="H618" t="inlineStr"/>
       <c r="I618" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -25608,12 +25608,12 @@
       <c r="H620" t="inlineStr"/>
       <c r="I620" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
